--- a/Datasets/data_final.xlsx
+++ b/Datasets/data_final.xlsx
@@ -475,12 +475,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>longitud</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>latitud</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>longitud</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>71</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74">
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="O117" t="n">
-        <v>57</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -8945,7 +8945,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136">
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="O138" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
@@ -10583,7 +10583,7 @@
         </is>
       </c>
       <c r="O161" t="n">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162">
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="O171" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="172">
@@ -11587,7 +11587,7 @@
         </is>
       </c>
       <c r="O177" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="O218" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="219">
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="O236" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="237">
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="O268" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269">
@@ -17430,7 +17430,7 @@
         </is>
       </c>
       <c r="O270" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="271">
@@ -18753,7 +18753,7 @@
         </is>
       </c>
       <c r="O291" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="292">
@@ -20576,7 +20576,7 @@
         </is>
       </c>
       <c r="O320" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="321">
@@ -22530,7 +22530,7 @@
         </is>
       </c>
       <c r="O351" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="352">
@@ -23034,7 +23034,7 @@
         </is>
       </c>
       <c r="O359" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360">
@@ -23286,7 +23286,7 @@
         </is>
       </c>
       <c r="O363" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="364">
@@ -23664,7 +23664,7 @@
         </is>
       </c>
       <c r="O369" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="370">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="O383" t="n">
-        <v>18</v>
+        <v>78</v>
       </c>
     </row>
     <row r="384">
@@ -26436,7 +26436,7 @@
         </is>
       </c>
       <c r="O413" t="n">
-        <v>52</v>
+        <v>29</v>
       </c>
     </row>
     <row r="414">
@@ -27885,7 +27885,7 @@
         </is>
       </c>
       <c r="O436" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="437">
@@ -28011,7 +28011,7 @@
         </is>
       </c>
       <c r="O438" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439">
@@ -28515,7 +28515,7 @@
         </is>
       </c>
       <c r="O446" t="n">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="447">
@@ -28704,7 +28704,7 @@
         </is>
       </c>
       <c r="O449" t="n">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="450">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="O453" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="454">
@@ -29082,7 +29082,7 @@
         </is>
       </c>
       <c r="O455" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="456">
@@ -29460,7 +29460,7 @@
         </is>
       </c>
       <c r="O461" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="462">
@@ -30027,7 +30027,7 @@
         </is>
       </c>
       <c r="O470" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="471">
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="O489" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="490">
@@ -31728,7 +31728,7 @@
         </is>
       </c>
       <c r="O497" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="498">
@@ -33177,7 +33177,7 @@
         </is>
       </c>
       <c r="O520" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="521">
@@ -33240,7 +33240,7 @@
         </is>
       </c>
       <c r="O521" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="522">
@@ -34437,7 +34437,7 @@
         </is>
       </c>
       <c r="O540" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="541">
@@ -34689,7 +34689,7 @@
         </is>
       </c>
       <c r="O544" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="545">
@@ -34878,7 +34878,7 @@
         </is>
       </c>
       <c r="O547" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="548">
@@ -35382,7 +35382,7 @@
         </is>
       </c>
       <c r="O555" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="556">
@@ -35945,7 +35945,7 @@
         </is>
       </c>
       <c r="O564" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="565">
@@ -36382,7 +36382,7 @@
         </is>
       </c>
       <c r="O571" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="572">
@@ -37807,12 +37807,12 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>PEATON_MOTO-MOTO</t>
+          <t>MOTO-MOTO</t>
         </is>
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>PEATON_MOTO</t>
+          <t>MOTO</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -37870,12 +37870,12 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>PEATON_MOTO-MOTO</t>
+          <t>MOTO-MOTO</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
         <is>
-          <t>PEATON_MOTO</t>
+          <t>MOTO</t>
         </is>
       </c>
       <c r="L595" t="inlineStr">
@@ -39658,7 +39658,7 @@
         </is>
       </c>
       <c r="O623" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="624">
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="O631" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="632">
@@ -40662,7 +40662,7 @@
         </is>
       </c>
       <c r="O639" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="640">
@@ -43875,7 +43875,7 @@
         </is>
       </c>
       <c r="O690" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="691">

--- a/Datasets/data_final.xlsx
+++ b/Datasets/data_final.xlsx
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="O32" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -2653,7 +2653,7 @@
         </is>
       </c>
       <c r="O35" t="n">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="O37" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="O40" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="O56" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="O64" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65">
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="O73" t="n">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74">
@@ -7118,7 +7118,7 @@
         </is>
       </c>
       <c r="O106" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="O117" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -8945,7 +8945,7 @@
         </is>
       </c>
       <c r="O135" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136">
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="O138" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
@@ -10583,7 +10583,7 @@
         </is>
       </c>
       <c r="O161" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162">
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="O171" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172">
@@ -11587,7 +11587,7 @@
         </is>
       </c>
       <c r="O177" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="O218" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="219">
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="O236" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237">
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="O268" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
@@ -17430,7 +17430,7 @@
         </is>
       </c>
       <c r="O270" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="271">
@@ -18753,7 +18753,7 @@
         </is>
       </c>
       <c r="O291" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="292">
@@ -20576,7 +20576,7 @@
         </is>
       </c>
       <c r="O320" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321">
@@ -22530,7 +22530,7 @@
         </is>
       </c>
       <c r="O351" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="352">
@@ -23034,7 +23034,7 @@
         </is>
       </c>
       <c r="O359" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="360">
@@ -23286,7 +23286,7 @@
         </is>
       </c>
       <c r="O363" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="364">
@@ -23664,7 +23664,7 @@
         </is>
       </c>
       <c r="O369" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="O383" t="n">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="384">
@@ -26436,7 +26436,7 @@
         </is>
       </c>
       <c r="O413" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="414">
@@ -27885,7 +27885,7 @@
         </is>
       </c>
       <c r="O436" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="437">
@@ -28011,7 +28011,7 @@
         </is>
       </c>
       <c r="O438" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
@@ -28515,7 +28515,7 @@
         </is>
       </c>
       <c r="O446" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="447">
@@ -28704,7 +28704,7 @@
         </is>
       </c>
       <c r="O449" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="450">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="O453" t="n">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="454">
@@ -29460,7 +29460,7 @@
         </is>
       </c>
       <c r="O461" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="462">
@@ -30027,7 +30027,7 @@
         </is>
       </c>
       <c r="O470" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="471">
@@ -31224,7 +31224,7 @@
         </is>
       </c>
       <c r="O489" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="490">
@@ -31728,7 +31728,7 @@
         </is>
       </c>
       <c r="O497" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="498">
@@ -33177,7 +33177,7 @@
         </is>
       </c>
       <c r="O520" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="521">
@@ -33240,7 +33240,7 @@
         </is>
       </c>
       <c r="O521" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="522">
@@ -34437,7 +34437,7 @@
         </is>
       </c>
       <c r="O540" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="541">
@@ -34689,7 +34689,7 @@
         </is>
       </c>
       <c r="O544" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="545">
@@ -34878,7 +34878,7 @@
         </is>
       </c>
       <c r="O547" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="548">
@@ -35382,7 +35382,7 @@
         </is>
       </c>
       <c r="O555" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="556">
@@ -35945,7 +35945,7 @@
         </is>
       </c>
       <c r="O564" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="565">
@@ -36382,7 +36382,7 @@
         </is>
       </c>
       <c r="O571" t="n">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="572">
@@ -39658,7 +39658,7 @@
         </is>
       </c>
       <c r="O623" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="624">
@@ -40162,7 +40162,7 @@
         </is>
       </c>
       <c r="O631" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="632">
@@ -40662,7 +40662,7 @@
         </is>
       </c>
       <c r="O639" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="640">
@@ -43875,7 +43875,7 @@
         </is>
       </c>
       <c r="O690" t="n">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="691">
